--- a/Build 1 Empty Test Cases.xlsx
+++ b/Build 1 Empty Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Login Logout" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="109">
   <si>
     <t>TC1: Log in and Log out (Base)</t>
   </si>
@@ -313,6 +313,42 @@
   </si>
   <si>
     <t>sorting works</t>
+  </si>
+  <si>
+    <t>please fill in this field</t>
+  </si>
+  <si>
+    <t>maybe it should show that error message to ALL required fields? Not just the first one.</t>
+  </si>
+  <si>
+    <t>error message, it said that closest value was 20 and 21</t>
+  </si>
+  <si>
+    <t>error message, it said that closest value was 20 and 22</t>
+  </si>
+  <si>
+    <t>rejected decimal</t>
+  </si>
+  <si>
+    <t>error messages shown 1 by 1. might be better to show them all at once after clicking submit the first time?</t>
+  </si>
+  <si>
+    <t>was accepted</t>
+  </si>
+  <si>
+    <t>石头守卫 was rejected BUT 石头守卫石头守卫 was accepted</t>
+  </si>
+  <si>
+    <t>accepted the 0</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>still said product saved</t>
+  </si>
+  <si>
+    <t>0 was accepted</t>
   </si>
 </sst>
 </file>
@@ -428,7 +464,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -465,9 +501,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -479,6 +512,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -548,7 +590,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,7 +625,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -794,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -823,14 +865,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -856,7 +898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.95" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -916,14 +958,14 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:7" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -964,7 +1006,7 @@
       <c r="F13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>37</v>
       </c>
     </row>
@@ -984,7 +1026,7 @@
       <c r="F14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -996,17 +1038,17 @@
       <c r="F15" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:7" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1047,7 +1089,7 @@
       <c r="F18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="18" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1067,7 +1109,7 @@
       <c r="F19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -1079,21 +1121,21 @@
       <c r="F20" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F21" s="7"/>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1171,14 +1213,14 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:7" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1251,6 +1293,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="G18:G20"/>
     <mergeCell ref="A22:C22"/>
@@ -1258,11 +1305,6 @@
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1273,19 +1315,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C160" zoomScale="109" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="D28" zoomScale="109" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62:G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="97.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1293,14 +1335,14 @@
       <c r="C2" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:7" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
@@ -1447,14 +1489,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1622,14 +1664,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1669,10 +1711,14 @@
         <v>36</v>
       </c>
       <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>2</v>
       </c>
@@ -1686,8 +1732,12 @@
         <v>36</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="9"/>
+      <c r="F28" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
@@ -1703,7 +1753,9 @@
         <v>36</v>
       </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1720,7 +1772,9 @@
         <v>36</v>
       </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="F30" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1737,7 +1791,9 @@
         <v>36</v>
       </c>
       <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1754,7 +1810,9 @@
         <v>36</v>
       </c>
       <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1771,14 +1829,14 @@
       <c r="G33" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1816,7 +1874,9 @@
         <v>36</v>
       </c>
       <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="F38" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1833,7 +1893,9 @@
         <v>34</v>
       </c>
       <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="F39" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1849,9 +1911,13 @@
       <c r="D40" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="20" t="s">
+      <c r="E40" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="19" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1868,9 +1934,13 @@
       <c r="D41" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="20"/>
+      <c r="E41" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="19"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
@@ -1885,9 +1955,13 @@
       <c r="D42" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="20" t="s">
+      <c r="E42" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="19" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1904,9 +1978,13 @@
       <c r="D43" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="20"/>
+      <c r="E43" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="19"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
@@ -1922,16 +2000,16 @@
       <c r="G44" s="10"/>
     </row>
     <row r="48" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+    </row>
+    <row r="49" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>1</v>
       </c>
@@ -1951,7 +2029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>1</v>
       </c>
@@ -1965,9 +2043,11 @@
         <v>36</v>
       </c>
       <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>2</v>
       </c>
@@ -1981,9 +2061,11 @@
         <v>36</v>
       </c>
       <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>3</v>
       </c>
@@ -1997,9 +2079,11 @@
         <v>36</v>
       </c>
       <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>4</v>
       </c>
@@ -2013,9 +2097,11 @@
         <v>36</v>
       </c>
       <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>5</v>
       </c>
@@ -2029,9 +2115,11 @@
         <v>36</v>
       </c>
       <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>6</v>
       </c>
@@ -2045,9 +2133,11 @@
         <v>36</v>
       </c>
       <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>7</v>
       </c>
@@ -2059,17 +2149,17 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="58" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="16" t="s">
+    <row r="58" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-    </row>
-    <row r="59" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+    </row>
+    <row r="59" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
         <v>1</v>
       </c>
@@ -2089,7 +2179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>1</v>
       </c>
@@ -2103,9 +2193,11 @@
         <v>34</v>
       </c>
       <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>2</v>
       </c>
@@ -2119,9 +2211,11 @@
         <v>34</v>
       </c>
       <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>3</v>
       </c>
@@ -2135,9 +2229,14 @@
         <v>36</v>
       </c>
       <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>4</v>
       </c>
@@ -2151,9 +2250,12 @@
         <v>36</v>
       </c>
       <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G63" s="21"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>5</v>
       </c>
@@ -2167,7 +2269,10 @@
         <v>36</v>
       </c>
       <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
+      <c r="F64" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G64" s="21"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
@@ -2183,7 +2288,10 @@
         <v>36</v>
       </c>
       <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
+      <c r="F65" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G65" s="21"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
@@ -2198,14 +2306,14 @@
       <c r="F66" s="10"/>
     </row>
     <row r="68" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
     </row>
     <row r="69" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="s">
@@ -2234,14 +2342,16 @@
       <c r="B70" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" t="s">
         <v>53</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
+      <c r="F70" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
@@ -2257,7 +2367,9 @@
         <v>34</v>
       </c>
       <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
+      <c r="F71" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
@@ -2273,7 +2385,9 @@
         <v>36</v>
       </c>
       <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
+      <c r="F72" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
@@ -2289,7 +2403,9 @@
         <v>36</v>
       </c>
       <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
+      <c r="F73" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
@@ -2305,7 +2421,9 @@
         <v>36</v>
       </c>
       <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
+      <c r="F74" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
@@ -2321,7 +2439,9 @@
         <v>36</v>
       </c>
       <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
+      <c r="F75" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
@@ -2336,14 +2456,14 @@
       <c r="F76" s="10"/>
     </row>
     <row r="78" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
       <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2381,7 +2501,9 @@
         <v>36</v>
       </c>
       <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
+      <c r="F80" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2397,8 +2519,12 @@
       <c r="D81" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
+      <c r="E81" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="G81" s="9" t="s">
         <v>55</v>
       </c>
@@ -2417,7 +2543,9 @@
         <v>34</v>
       </c>
       <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
+      <c r="F82" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2434,7 +2562,9 @@
         <v>34</v>
       </c>
       <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
+      <c r="F83" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2451,7 +2581,9 @@
         <v>34</v>
       </c>
       <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
+      <c r="F84" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2468,7 +2600,9 @@
         <v>34</v>
       </c>
       <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
+      <c r="F85" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2485,14 +2619,14 @@
       <c r="G86" s="10"/>
     </row>
     <row r="88" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
     </row>
     <row r="89" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
@@ -2528,7 +2662,9 @@
         <v>36</v>
       </c>
       <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
+      <c r="F90" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
@@ -2544,7 +2680,9 @@
         <v>34</v>
       </c>
       <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
+      <c r="F91" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
@@ -2560,7 +2698,9 @@
         <v>36</v>
       </c>
       <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
+      <c r="F92" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
@@ -2576,7 +2716,9 @@
         <v>36</v>
       </c>
       <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
+      <c r="F93" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="10">
@@ -2592,7 +2734,9 @@
         <v>36</v>
       </c>
       <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
+      <c r="F94" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
@@ -2608,7 +2752,9 @@
         <v>36</v>
       </c>
       <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
+      <c r="F95" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
@@ -2623,14 +2769,14 @@
       <c r="F96" s="10"/>
     </row>
     <row r="98" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
     </row>
     <row r="99" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="12" t="s">
@@ -2666,7 +2812,9 @@
         <v>36</v>
       </c>
       <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
+      <c r="F100" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="10">
@@ -2682,7 +2830,9 @@
         <v>34</v>
       </c>
       <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
+      <c r="F101" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="10">
@@ -2698,7 +2848,9 @@
         <v>36</v>
       </c>
       <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
+      <c r="F102" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="10">
@@ -2714,7 +2866,9 @@
         <v>36</v>
       </c>
       <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
+      <c r="F103" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="10">
@@ -2730,7 +2884,9 @@
         <v>36</v>
       </c>
       <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
+      <c r="F104" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="10">
@@ -2746,7 +2902,9 @@
         <v>36</v>
       </c>
       <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
+      <c r="F105" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="10">
@@ -2761,14 +2919,14 @@
       <c r="F106" s="10"/>
     </row>
     <row r="108" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="16" t="s">
+      <c r="A108" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
     </row>
     <row r="109" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
@@ -2803,6 +2961,9 @@
       <c r="D110" t="s">
         <v>36</v>
       </c>
+      <c r="F110" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="10">
@@ -2817,6 +2978,9 @@
       <c r="D111" t="s">
         <v>34</v>
       </c>
+      <c r="F111" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="10">
@@ -2831,8 +2995,11 @@
       <c r="D112" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F112" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
         <v>4</v>
       </c>
@@ -2845,8 +3012,11 @@
       <c r="D113" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="10">
         <v>5</v>
       </c>
@@ -2859,8 +3029,11 @@
       <c r="D114" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="10">
         <v>6</v>
       </c>
@@ -2873,8 +3046,11 @@
       <c r="D115" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="10">
         <v>7</v>
       </c>
@@ -2882,17 +3058,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="16" t="s">
+    <row r="118" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B118" s="16"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-    </row>
-    <row r="119" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+    </row>
+    <row r="119" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>1</v>
       </c>
@@ -2912,7 +3088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10">
         <v>1</v>
       </c>
@@ -2925,8 +3101,14 @@
       <c r="D120" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="10">
         <v>2</v>
       </c>
@@ -2939,8 +3121,14 @@
       <c r="D121" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E121" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="10">
         <v>3</v>
       </c>
@@ -2953,8 +3141,11 @@
       <c r="D122" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="10">
         <v>4</v>
       </c>
@@ -2967,8 +3158,11 @@
       <c r="D123" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F123" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="10">
         <v>5</v>
       </c>
@@ -2981,8 +3175,11 @@
       <c r="D124" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="10">
         <v>6</v>
       </c>
@@ -2995,8 +3192,11 @@
       <c r="D125" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="10">
         <v>7</v>
       </c>
@@ -3005,7 +3205,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
     <mergeCell ref="A118:C118"/>
     <mergeCell ref="D118:F118"/>
     <mergeCell ref="G40:G41"/>
@@ -3020,18 +3232,7 @@
     <mergeCell ref="D78:F78"/>
     <mergeCell ref="A88:C88"/>
     <mergeCell ref="D88:F88"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G62:G65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3040,32 +3241,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F124"/>
+  <dimension ref="A2:G124"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView topLeftCell="B190" workbookViewId="0">
+      <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="10"/>
+    <col min="7" max="7" width="97.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -3100,8 +3302,12 @@
       <c r="D4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
@@ -3117,7 +3323,9 @@
         <v>34</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
@@ -3133,7 +3341,9 @@
         <v>34</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
@@ -3149,7 +3359,9 @@
         <v>34</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
@@ -3165,7 +3377,9 @@
         <v>34</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
@@ -3181,7 +3395,9 @@
         <v>34</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
@@ -3195,14 +3411,14 @@
       <c r="F10" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
@@ -3224,7 +3440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.95" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>1</v>
       </c>
@@ -3237,6 +3453,12 @@
       <c r="D15" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="E15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
@@ -3252,7 +3474,9 @@
         <v>34</v>
       </c>
       <c r="E16" s="14"/>
-      <c r="F16" s="13"/>
+      <c r="F16" s="13" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
@@ -3268,7 +3492,9 @@
         <v>36</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="13" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
@@ -3284,7 +3510,9 @@
         <v>36</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="F18" s="13" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
@@ -3300,7 +3528,9 @@
         <v>36</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
@@ -3316,7 +3546,9 @@
         <v>36</v>
       </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
@@ -3330,14 +3562,14 @@
       <c r="F21" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
@@ -3372,6 +3604,9 @@
       <c r="D25" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="F25" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
@@ -3386,6 +3621,9 @@
       <c r="D26" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="F26" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
@@ -3400,6 +3638,9 @@
       <c r="D27" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="F27" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
@@ -3414,6 +3655,9 @@
       <c r="D28" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="F28" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
@@ -3428,6 +3672,9 @@
       <c r="D29" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="F29" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
@@ -3441,6 +3688,9 @@
       </c>
       <c r="D30" s="10" t="s">
         <v>36</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3451,17 +3701,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="1:7" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>1</v>
       </c>
@@ -3481,7 +3731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.95" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>1</v>
       </c>
@@ -3494,8 +3744,11 @@
       <c r="D36" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F36" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>2</v>
       </c>
@@ -3508,8 +3761,11 @@
       <c r="D37" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F37" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>3</v>
       </c>
@@ -3522,8 +3778,17 @@
       <c r="D38" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E38" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>4</v>
       </c>
@@ -3536,8 +3801,17 @@
       <c r="D39" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E39" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -3550,8 +3824,14 @@
       <c r="D40" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E40" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>6</v>
       </c>
@@ -3564,8 +3844,14 @@
       <c r="D41" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E41" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>7</v>
       </c>
@@ -3573,17 +3859,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
+    <row r="46" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:6" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+    </row>
+    <row r="47" spans="1:7" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>1</v>
       </c>
@@ -3603,7 +3889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.95" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="15.95" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>1</v>
       </c>
@@ -3616,8 +3902,11 @@
       <c r="D48" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F48" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>2</v>
       </c>
@@ -3630,8 +3919,11 @@
       <c r="D49" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F49" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>3</v>
       </c>
@@ -3644,8 +3936,11 @@
       <c r="D50" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F50" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>4</v>
       </c>
@@ -3658,8 +3953,11 @@
       <c r="D51" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F51" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>5</v>
       </c>
@@ -3672,8 +3970,11 @@
       <c r="D52" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F52" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>6</v>
       </c>
@@ -3686,8 +3987,11 @@
       <c r="D53" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F53" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>7</v>
       </c>
@@ -3695,17 +3999,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
+    <row r="56" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-    </row>
-    <row r="57" spans="1:6" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+    </row>
+    <row r="57" spans="1:7" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>1</v>
       </c>
@@ -3725,7 +4029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.95" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="15.95" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>1</v>
       </c>
@@ -3738,8 +4042,11 @@
       <c r="D58" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F58" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>2</v>
       </c>
@@ -3752,8 +4059,11 @@
       <c r="D59" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F59" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>3</v>
       </c>
@@ -3766,8 +4076,14 @@
       <c r="D60" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F60" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>4</v>
       </c>
@@ -3780,8 +4096,12 @@
       <c r="D61" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F61" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G61" s="22"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>5</v>
       </c>
@@ -3794,8 +4114,12 @@
       <c r="D62" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F62" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" s="22"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>6</v>
       </c>
@@ -3808,8 +4132,12 @@
       <c r="D63" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F63" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G63" s="22"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>7</v>
       </c>
@@ -3818,14 +4146,14 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
     </row>
     <row r="67" spans="1:6" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
@@ -3847,18 +4175,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.95" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>1</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" t="s">
         <v>53</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>36</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -3874,6 +4205,9 @@
       <c r="D69" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="F69" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
@@ -3888,6 +4222,9 @@
       <c r="D70" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="F70" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
@@ -3902,6 +4239,9 @@
       <c r="D71" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="F71" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
@@ -3916,6 +4256,9 @@
       <c r="D72" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="F72" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
@@ -3929,6 +4272,9 @@
       </c>
       <c r="D73" s="10" t="s">
         <v>36</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -3940,14 +4286,14 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
     </row>
     <row r="77" spans="1:6" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
@@ -3982,6 +4328,9 @@
       <c r="D78" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="F78" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
@@ -3996,6 +4345,12 @@
       <c r="D79" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="E79" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
@@ -4010,6 +4365,9 @@
       <c r="D80" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="F80" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
@@ -4024,6 +4382,9 @@
       <c r="D81" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="F81" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="10">
@@ -4038,6 +4399,9 @@
       <c r="D82" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="F82" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="10">
@@ -4051,6 +4415,9 @@
       </c>
       <c r="D83" s="10" t="s">
         <v>34</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4062,14 +4429,14 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
     </row>
     <row r="87" spans="1:6" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
@@ -4104,6 +4471,9 @@
       <c r="D88" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="F88" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="10">
@@ -4118,6 +4488,9 @@
       <c r="D89" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="F89" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="10">
@@ -4132,6 +4505,9 @@
       <c r="D90" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="F90" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="10">
@@ -4146,6 +4522,9 @@
       <c r="D91" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="F91" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="10">
@@ -4160,6 +4539,9 @@
       <c r="D92" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="F92" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="10">
@@ -4173,6 +4555,9 @@
       </c>
       <c r="D93" s="10" t="s">
         <v>36</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4184,14 +4569,14 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
     </row>
     <row r="97" spans="1:6" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
@@ -4226,6 +4611,9 @@
       <c r="D98" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="F98" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="10">
@@ -4240,6 +4628,9 @@
       <c r="D99" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="F99" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="10">
@@ -4254,6 +4645,9 @@
       <c r="D100" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="F100" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="10">
@@ -4268,6 +4662,9 @@
       <c r="D101" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="F101" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="10">
@@ -4282,6 +4679,9 @@
       <c r="D102" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="F102" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="10">
@@ -4295,6 +4695,9 @@
       </c>
       <c r="D103" s="10" t="s">
         <v>36</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4306,14 +4709,14 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="16" t="s">
+      <c r="A106" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
     </row>
     <row r="107" spans="1:6" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
@@ -4348,6 +4751,9 @@
       <c r="D108" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="F108" s="10" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="10">
@@ -4362,6 +4768,9 @@
       <c r="D109" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="F109" s="10" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="10">
@@ -4376,6 +4785,9 @@
       <c r="D110" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="F110" s="10" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="10">
@@ -4390,6 +4802,9 @@
       <c r="D111" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="F111" s="10" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="10">
@@ -4404,6 +4819,9 @@
       <c r="D112" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="F112" s="10" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="10">
@@ -4417,6 +4835,9 @@
       </c>
       <c r="D113" s="10" t="s">
         <v>34</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -4428,14 +4849,14 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="16" t="s">
+      <c r="A116" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B116" s="16"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
     </row>
     <row r="117" spans="1:6" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
@@ -4586,7 +5007,20 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:F56"/>
     <mergeCell ref="A66:C66"/>
     <mergeCell ref="D66:F66"/>
     <mergeCell ref="A76:C76"/>
@@ -4599,18 +5033,6 @@
     <mergeCell ref="D96:F96"/>
     <mergeCell ref="A106:C106"/>
     <mergeCell ref="D106:F106"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4621,7 +5043,7 @@
   <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4635,14 +5057,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="18.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
